--- a/fixed_income/Clase 05 Risk Management/ejercicio_duracion.xlsx
+++ b/fixed_income/Clase 05 Risk Management/ejercicio_duracion.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\Desarrollo\MEF\Catedras\Economía Financiera\economia-financiera-priv\clases\Clase 05_BonosRiskManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\Desarrollo\MEF\Catedras\Economía Financiera\economia-financiera\fixed_income\Clase 05 Risk Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549D64DA-D939-47B9-B617-1FA2736457B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E28007D-1560-47DE-9BED-90AC7F10009C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2570D297-CA1B-4FE0-A4EE-3AFE8FA91199}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculo" sheetId="4" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="6" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="111">
   <si>
     <t>Moneda</t>
   </si>
@@ -204,9 +206,6 @@
   </si>
   <si>
     <t>*BTP a tasa 04,5 con vencimiento el 03 26 = BTP0450326</t>
-  </si>
-  <si>
-    <t>Base TIR</t>
   </si>
   <si>
     <t>Dias hasta prox pago</t>
@@ -308,6 +307,90 @@
   </si>
   <si>
     <t>(valor presente del flujo por plazo) dividido entre la suma del valor presente</t>
+  </si>
+  <si>
+    <t>Tasa Anual</t>
+  </si>
+  <si>
+    <t>Periodos</t>
+  </si>
+  <si>
+    <t>Tasa periodo</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>En años</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>convencion</t>
+  </si>
+  <si>
+    <t>En un mes</t>
+  </si>
+  <si>
+    <t>Recibo</t>
+  </si>
+  <si>
+    <t>Tasa</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>dias para pago</t>
+  </si>
+  <si>
+    <t>Punto base</t>
+  </si>
+  <si>
+    <t>100 pb = 1%</t>
+  </si>
+  <si>
+    <t>bonos</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Paga el 90% flujos al inicio</t>
+  </si>
+  <si>
+    <t>Paga el 90% de flujos al final</t>
+  </si>
+  <si>
+    <t>Ambos tienen madurez 1 año</t>
+  </si>
+  <si>
+    <t>en 1 año vence</t>
+  </si>
+  <si>
+    <t>tiempo ponderado en que recibo los flujos</t>
+  </si>
+  <si>
+    <t>90% 0,002</t>
+  </si>
+  <si>
+    <t>90% 0,98</t>
+  </si>
+  <si>
+    <t>si lo descuento a 1 dia no me afecta tanto un cambio de tasa</t>
+  </si>
+  <si>
+    <t>pero si lo descuento a 359 dias si me geenera un impacto</t>
+  </si>
+  <si>
+    <t>precio respecto a inversion inicial</t>
+  </si>
+  <si>
+    <t>Base TIR Convencion</t>
   </si>
 </sst>
 </file>
@@ -341,7 +424,7 @@
     <numFmt numFmtId="185" formatCode="_ &quot;$&quot;* #,##0.0000_ ;_ &quot;$&quot;* \-#,##0.0000_ ;_ &quot;$&quot;* &quot;-&quot;????_ ;_ @_ "/>
     <numFmt numFmtId="186" formatCode="_ &quot;$&quot;* #,##0.00000_ ;_ &quot;$&quot;* \-#,##0.00000_ ;_ &quot;$&quot;* &quot;-&quot;????_ ;_ @_ "/>
     <numFmt numFmtId="187" formatCode="_ &quot;$&quot;* #,##0.00000_ ;_ &quot;$&quot;* \-#,##0.00000_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="189" formatCode="_ &quot;$&quot;* #,##0.000_ ;_ &quot;$&quot;* \-#,##0.000_ ;_ &quot;$&quot;* &quot;-&quot;????_ ;_ @_ "/>
+    <numFmt numFmtId="188" formatCode="_ &quot;$&quot;* #,##0.000_ ;_ &quot;$&quot;* \-#,##0.000_ ;_ &quot;$&quot;* &quot;-&quot;????_ ;_ @_ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -418,7 +501,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +538,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -688,7 +777,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -788,7 +877,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="0" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="175" fontId="0" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
@@ -799,18 +887,34 @@
     <xf numFmtId="185" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -917,16 +1021,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>138393</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54080</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1478830</xdr:colOff>
+      <xdr:colOff>923895</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>104970</xdr:rowOff>
+      <xdr:rowOff>146383</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -949,8 +1053,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="112058" y="9304805"/>
-          <a:ext cx="7361919" cy="3008227"/>
+          <a:off x="816080" y="9459503"/>
+          <a:ext cx="7355098" cy="3061097"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -968,9 +1072,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>257479</xdr:colOff>
+      <xdr:colOff>254304</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>12623</xdr:rowOff>
+      <xdr:rowOff>9448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1012,9 +1116,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>336177</xdr:colOff>
+      <xdr:colOff>333002</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>164240</xdr:rowOff>
+      <xdr:rowOff>161065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1039,6 +1143,55 @@
         <a:xfrm>
           <a:off x="9116733" y="5991973"/>
           <a:ext cx="1850651" cy="814180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>255205</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB58ED16-7E80-29C5-F6D2-03D45E40A873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12239625" y="2190749"/>
+          <a:ext cx="4998655" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1400,14 +1553,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F990F903-816C-4877-9438-A2DEC11774D6}">
   <dimension ref="A1:AF57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.90625" customWidth="1"/>
     <col min="6" max="6" width="22.26953125" customWidth="1"/>
     <col min="7" max="7" width="11.08984375" customWidth="1"/>
@@ -1422,21 +1575,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="Q1" s="107" t="s">
-        <v>83</v>
+      <c r="Q1" s="105" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
       <c r="H2" s="47"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
       <c r="M2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" t="s">
         <v>58</v>
       </c>
-      <c r="N2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="107"/>
+      <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="17" t="s">
@@ -1465,10 +1624,10 @@
         <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
         <v>50</v>
@@ -1477,7 +1636,7 @@
         <v>49</v>
       </c>
       <c r="Q3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1509,7 +1668,7 @@
       <c r="N4" s="11"/>
       <c r="O4" s="10"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="104">
+      <c r="Q4" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -1553,7 +1712,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="10"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="104">
+      <c r="Q5" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -1562,7 +1721,7 @@
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="E6" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="28">
         <v>2</v>
@@ -1586,7 +1745,7 @@
       <c r="N6" s="11"/>
       <c r="O6" s="10"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="104">
+      <c r="Q6" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -1623,7 +1782,7 @@
       <c r="N7" s="11"/>
       <c r="O7" s="10"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="104">
+      <c r="Q7" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -1664,7 +1823,7 @@
       <c r="N8" s="11"/>
       <c r="O8" s="10"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="104">
+      <c r="Q8" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -1682,9 +1841,9 @@
       <c r="F9" s="29">
         <v>1.08774644876575</v>
       </c>
-      <c r="G9" s="106">
+      <c r="G9" s="11">
         <f>+SUM(Q24:Q26)</f>
-        <v>1.0877339154960159</v>
+        <v>1.0869711760781975</v>
       </c>
       <c r="H9">
         <v>6</v>
@@ -1705,7 +1864,7 @@
       <c r="N9" s="11"/>
       <c r="O9" s="10"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="104">
+      <c r="Q9" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -1742,7 +1901,7 @@
       <c r="N10" s="11"/>
       <c r="O10" s="10"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="104">
+      <c r="Q10" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -1755,7 +1914,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="F11" s="21">
         <v>365</v>
@@ -1779,7 +1938,7 @@
       <c r="N11" s="11"/>
       <c r="O11" s="10"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="104">
+      <c r="Q11" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -1816,7 +1975,7 @@
       <c r="N12" s="11"/>
       <c r="O12" s="10"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="104">
+      <c r="Q12" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -1847,7 +2006,7 @@
       <c r="N13" s="11"/>
       <c r="O13" s="10"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="104">
+      <c r="Q13" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -1878,7 +2037,7 @@
       <c r="N14" s="11"/>
       <c r="O14" s="10"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="104">
+      <c r="Q14" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -1894,7 +2053,7 @@
         <v>52</v>
       </c>
       <c r="F15" s="70">
-        <v>5.1052E-2</v>
+        <v>8.1551999999999999E-2</v>
       </c>
       <c r="H15">
         <v>12</v>
@@ -1915,7 +2074,7 @@
       <c r="N15" s="11"/>
       <c r="O15" s="10"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="104">
+      <c r="Q15" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -1928,7 +2087,7 @@
         <v>42116</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="69">
         <v>1000</v>
@@ -1952,7 +2111,7 @@
       <c r="N16" s="11"/>
       <c r="O16" s="10"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="104">
+      <c r="Q16" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -1989,7 +2148,7 @@
       <c r="N17" s="11"/>
       <c r="O17" s="10"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="104">
+      <c r="Q17" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -2020,24 +2179,24 @@
       <c r="N18" s="11"/>
       <c r="O18" s="10"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="104">
+      <c r="Q18" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="117">
         <v>45673</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="82">
         <f>+SUM(P24:P26)</f>
-        <v>1011.1894209544832</v>
+        <v>980.22121629627168</v>
       </c>
       <c r="H19">
         <v>16</v>
@@ -2058,7 +2217,7 @@
       <c r="N19" s="11"/>
       <c r="O19" s="10"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="104">
+      <c r="Q19" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -2089,7 +2248,7 @@
       <c r="N20" s="11"/>
       <c r="O20" s="10"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="104">
+      <c r="Q20" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -2120,7 +2279,7 @@
       <c r="N21" s="11"/>
       <c r="O21" s="10"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="104">
+      <c r="Q21" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -2132,10 +2291,10 @@
       <c r="C22" s="30">
         <v>99.496899999999997</v>
       </c>
-      <c r="E22" s="102" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="103"/>
+      <c r="E22" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="104"/>
       <c r="H22">
         <v>19</v>
       </c>
@@ -2155,7 +2314,7 @@
       <c r="N22" s="11"/>
       <c r="O22" s="10"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="104">
+      <c r="Q22" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -2168,7 +2327,7 @@
         <v>-0.43569999999999998</v>
       </c>
       <c r="E23" s="71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F23" s="76">
         <f>+F17-I23</f>
@@ -2193,7 +2352,7 @@
       <c r="N23" s="11"/>
       <c r="O23" s="10"/>
       <c r="P23" s="12"/>
-      <c r="Q23" s="104">
+      <c r="Q23" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
         <v>0</v>
       </c>
@@ -2206,7 +2365,7 @@
         <v>45673</v>
       </c>
       <c r="E24" s="72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" s="77">
         <f>+F23/F11</f>
@@ -2219,7 +2378,7 @@
         <v>45717</v>
       </c>
       <c r="J24" s="40">
-        <f t="shared" si="0"/>
+        <f>+$F$5/$F$6*$F$16</f>
         <v>22.5</v>
       </c>
       <c r="K24" s="41"/>
@@ -2237,15 +2396,15 @@
       </c>
       <c r="O24" s="45">
         <f>+(1+$F$15)^Tabla13[[#This Row],[Años hasta prox pago]]</f>
-        <v>1.0060203208582026</v>
+        <v>1.0094954008394155</v>
       </c>
       <c r="P24" s="46">
         <f>+L24/O24</f>
-        <v>22.365353396446302</v>
-      </c>
-      <c r="Q24" s="104">
+        <v>22.288363058703194</v>
+      </c>
+      <c r="Q24" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
-        <v>2.6662634516004817E-3</v>
+        <v>2.7410306204883198E-3</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.35">
@@ -2256,7 +2415,7 @@
         <v>5.0552000000000001</v>
       </c>
       <c r="E25" s="72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="78">
         <f>+((1+F7)^F24)</f>
@@ -2287,15 +2446,15 @@
       </c>
       <c r="O25" s="45">
         <f>+(1+$F$15)^Tabla13[[#This Row],[Años hasta prox pago]]</f>
-        <v>1.0315914198761573</v>
+        <v>1.0501902159774963</v>
       </c>
       <c r="P25" s="46">
         <f>+L25/O25</f>
-        <v>21.810960780093662</v>
-      </c>
-      <c r="Q25" s="104">
+        <v>21.424690172967804</v>
+      </c>
+      <c r="Q25" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
-        <v>1.3473618985829305E-2</v>
+        <v>1.3653136570549259E-2</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.35">
@@ -2306,7 +2465,7 @@
         <v>0.99496899999999999</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="79">
         <f>+F25*F16</f>
@@ -2340,15 +2499,15 @@
       </c>
       <c r="O26" s="45">
         <f>+(1+$F$15)^Tabla13[[#This Row],[Años hasta prox pago]]</f>
-        <v>1.0573796702786555</v>
+        <v>1.0918217697686716</v>
       </c>
       <c r="P26" s="46">
         <f>+L26/O26</f>
-        <v>967.01310677794334</v>
-      </c>
-      <c r="Q26" s="104">
+        <v>936.50816306460069</v>
+      </c>
+      <c r="Q26" s="101">
         <f>+Tabla13[[#This Row],[VP TIR]]*(Tabla13[[#This Row],[Dias hasta prox pago]]/$F$11)/$F$19</f>
-        <v>1.0715940330585862</v>
+        <v>1.07057700888716</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.35">
@@ -2359,11 +2518,11 @@
         <v>-0.43569999999999998</v>
       </c>
       <c r="E27" s="80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="81">
         <f>+F19/F26</f>
-        <v>0.9944539721995217</v>
+        <v>0.96399829940858528</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.35">
@@ -2390,7 +2549,7 @@
         <f>+F9</f>
         <v>1.08774644876575</v>
       </c>
-      <c r="K29" s="105"/>
+      <c r="K29" s="102"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B30" s="19" t="s">
@@ -2400,11 +2559,11 @@
         <v>99.508200000000002</v>
       </c>
       <c r="E30" s="73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F30" s="75">
         <f>+F29/(1+F15)</f>
-        <v>1.0349121154479035</v>
+        <v>1.0057273702658309</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.35">
@@ -2426,11 +2585,11 @@
         <v>1171078166032</v>
       </c>
       <c r="E32" s="83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" s="84">
         <f>+F15-(C25/100)</f>
-        <v>5.0000000000000044E-4</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I32" s="61"/>
     </row>
@@ -2453,11 +2612,11 @@
         <v>4370000000</v>
       </c>
       <c r="E34" s="85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F34" s="86">
         <f>+-F32*F30</f>
-        <v>-5.1745605772395226E-4</v>
+        <v>-3.1177548478240759E-2</v>
       </c>
       <c r="I34" s="62"/>
     </row>
@@ -2469,11 +2628,11 @@
         <v>1090330000000</v>
       </c>
       <c r="E35" s="87" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="97">
+        <v>71</v>
+      </c>
+      <c r="F35" s="96">
         <f>+F34*F38</f>
-        <v>-0.52351698119765067</v>
+        <v>-31.542728733846047</v>
       </c>
       <c r="H35" s="64"/>
       <c r="I35" s="58"/>
@@ -2486,11 +2645,11 @@
         <v>8.2526095233071003E-4</v>
       </c>
       <c r="E36" s="88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F36" s="89">
         <f>+F38*(1+F34)</f>
-        <v>1011.1894070115324</v>
+        <v>980.17019525888395</v>
       </c>
       <c r="I36" s="63"/>
     </row>
@@ -2513,7 +2672,7 @@
         <v>4.8888322626373E-2</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" s="90">
         <v>1011.71292399273</v>
@@ -2527,9 +2686,9 @@
         <v>0.94727376795456997</v>
       </c>
       <c r="E39" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="93">
+        <v>75</v>
+      </c>
+      <c r="F39" s="92">
         <f>+C25/100</f>
         <v>5.0552E-2</v>
       </c>
@@ -2542,11 +2701,11 @@
         <v>2.0815056491477302</v>
       </c>
       <c r="E40" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="91">
+        <v>72</v>
+      </c>
+      <c r="F40" s="118">
         <f>+F19</f>
-        <v>1011.1894209544832</v>
+        <v>980.22121629627168</v>
       </c>
       <c r="G40" s="5"/>
     </row>
@@ -2558,11 +2717,11 @@
         <v>43</v>
       </c>
       <c r="E41" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" s="92">
+        <v>73</v>
+      </c>
+      <c r="F41" s="91">
         <f>+(F40-F38)/F38</f>
-        <v>-5.1744227619506054E-4</v>
+        <v>-3.112711812771566E-2</v>
       </c>
       <c r="H41" s="66"/>
       <c r="Q41" s="7"/>
@@ -2573,12 +2732,12 @@
       <c r="Q42" s="7"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="E43" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="95">
+      <c r="E43" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="94">
         <f>+F36-F40</f>
-        <v>-1.3942950886303151E-5</v>
+        <v>-5.1021037387727119E-2</v>
       </c>
       <c r="H43" s="58"/>
       <c r="Q43" s="7"/>
@@ -2588,21 +2747,21 @@
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E45" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="98">
+        <v>78</v>
+      </c>
+      <c r="F45" s="97">
         <f>+-F30*F32+(1/2)*C40*(F32^2)</f>
-        <v>-5.171958695178088E-4</v>
+        <v>-3.0177385013825275E-2</v>
       </c>
       <c r="J45" s="12"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E46" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F46" s="99">
+        <v>77</v>
+      </c>
+      <c r="F46" s="98">
         <f>+F45*F38</f>
-        <v>-0.52325374542682479</v>
+        <v>-30.53085043079156</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="56"/>
@@ -2610,21 +2769,21 @@
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E47" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" s="100">
+        <v>69</v>
+      </c>
+      <c r="F47" s="99">
         <f>+F38*(1+F45)</f>
-        <v>1011.1896702473032</v>
+        <v>981.18207356193841</v>
       </c>
       <c r="K47" s="12"/>
     </row>
     <row r="48" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E48" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" s="101">
+        <v>76</v>
+      </c>
+      <c r="F48" s="100">
         <f>+F40-F47</f>
-        <v>-2.4929281994445773E-4</v>
+        <v>-0.96085726566673202</v>
       </c>
       <c r="K48" s="12"/>
     </row>
@@ -2643,7 +2802,7 @@
       <c r="H53" s="56"/>
     </row>
     <row r="55" spans="8:16" x14ac:dyDescent="0.35">
-      <c r="H55" s="96"/>
+      <c r="H55" s="95"/>
     </row>
     <row r="57" spans="8:16" x14ac:dyDescent="0.35">
       <c r="H57" s="65"/>
@@ -2656,11 +2815,654 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="N25:N26 N24 O24:O26 K26" calculatedColumn="1"/>
+    <ignoredError sqref="N25:N26 N24 O25:O26 K26" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A48B6AD-C879-4538-A177-D2D4447E3C6E}">
+  <dimension ref="C5:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="E5">
+        <f>+C5*360</f>
+        <v>245.988</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <f>+C5+1</f>
+        <v>1.6833</v>
+      </c>
+      <c r="E6">
+        <f>+C6*360</f>
+        <v>605.98800000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8B433F-B1D1-4BC9-9246-4C754036B800}">
+  <dimension ref="D2:O63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="107">
+        <v>0.05</v>
+      </c>
+      <c r="I3" s="111" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="112"/>
+      <c r="L3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <f>+$G$3/D4</f>
+        <v>0.05</v>
+      </c>
+      <c r="I4" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:E7" si="0">+$G$3/D5</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I5" s="14">
+        <v>2</v>
+      </c>
+      <c r="J5" s="99">
+        <f>+I5/$L$4</f>
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="L5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="I6" s="15">
+        <v>360</v>
+      </c>
+      <c r="J6" s="110">
+        <f>+I6/$L$4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>+$G$42-G13</f>
+        <v>29</v>
+      </c>
+      <c r="I13">
+        <f>+$M$17/((1+$O$16)^(H13/360))</f>
+        <v>99.607739481360539</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H42" si="1">+$G$42-G14</f>
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I42" si="2">+$M$17/((1+$O$16)^(H14/360))</f>
+        <v>99.6212400571996</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>99.634742462871841</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>99.648246698625272</v>
+      </c>
+      <c r="M16" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="107">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>99.66175276470797</v>
+      </c>
+      <c r="L17" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>99.675260661368014</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>99.688770388853456</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>99.702281947412487</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>99.715795337293301</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>99.729310558744089</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>99.742827612013087</v>
+      </c>
+    </row>
+    <row r="24" spans="7:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>99.756346497348588</v>
+      </c>
+    </row>
+    <row r="25" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>99.769867214998925</v>
+      </c>
+      <c r="M25" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="N25" s="109"/>
+    </row>
+    <row r="26" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>99.783389765212405</v>
+      </c>
+      <c r="M26" s="114">
+        <v>1E-4</v>
+      </c>
+      <c r="N26" s="115">
+        <f>+M26</f>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G27">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>99.796914148237434</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="99"/>
+    </row>
+    <row r="28" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G28">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>99.810440364322403</v>
+      </c>
+      <c r="M28" s="14"/>
+      <c r="N28" s="99"/>
+    </row>
+    <row r="29" spans="7:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G29">
+        <v>17</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>99.823968413715804</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N29" s="110"/>
+    </row>
+    <row r="30" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G30">
+        <v>18</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>99.837498296666055</v>
+      </c>
+    </row>
+    <row r="31" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <v>19</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>99.851030013421749</v>
+      </c>
+    </row>
+    <row r="32" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <v>20</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>99.864563564231375</v>
+      </c>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G33">
+        <v>21</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>99.878098949343553</v>
+      </c>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G34">
+        <v>22</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>99.891636169006858</v>
+      </c>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G35">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>99.905175223469982</v>
+      </c>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G36">
+        <v>24</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>99.918716112981585</v>
+      </c>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G37">
+        <v>25</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>99.9322588377904</v>
+      </c>
+    </row>
+    <row r="38" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G38">
+        <v>26</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>99.945803398145173</v>
+      </c>
+    </row>
+    <row r="39" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <v>27</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>99.959349794294681</v>
+      </c>
+    </row>
+    <row r="40" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G40">
+        <v>28</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>99.972898026487755</v>
+      </c>
+    </row>
+    <row r="41" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G41">
+        <v>29</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>99.986448094973227</v>
+      </c>
+      <c r="K41">
+        <f>+H41/360</f>
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G42" s="113">
+        <v>30</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f>+$M$17/((1+$O$16)^(H42/360))</f>
+        <v>100</v>
+      </c>
+      <c r="J42" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
+        <v>102</v>
+      </c>
+      <c r="G54" t="s">
+        <v>98</v>
+      </c>
+      <c r="I54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D55" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" t="s">
+        <v>100</v>
+      </c>
+      <c r="I55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E57" t="s">
+        <v>104</v>
+      </c>
+      <c r="G57" t="s">
+        <v>105</v>
+      </c>
+      <c r="I57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="G59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="G60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="G63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>